--- a/apps/features/backlog/desktop/windows/login/login_page.xlsx
+++ b/apps/features/backlog/desktop/windows/login/login_page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0850CF55-6D24-4E5A-B748-F04286F5633F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BBA397-9800-43E9-BD64-17EDE3EDCCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="151">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -583,6 +583,21 @@
   <si>
     <t>Ref.  ID</t>
   </si>
+  <si>
+    <t>SYM-WIN-LOG-033</t>
+  </si>
+  <si>
+    <t>check user can login with alphanumeric character in username field</t>
+  </si>
+  <si>
+    <t>1. goto the app store
+2. search and install the app
+3. open the app and goto signin page opened
+4. check user can login with alphanumeric character in username field</t>
+  </si>
+  <si>
+    <t>should logged in</t>
+  </si>
 </sst>
 </file>
 
@@ -826,6 +841,32 @@
   <dxfs count="57">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -857,32 +898,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-      </font>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1541,8 +1556,8 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{ABD1C945-C68C-4540-B8B3-830B0612302C}" name="Ref.  ID" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{ABD1C945-C68C-4540-B8B3-830B0612302C}" name="Ref.  ID" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1752,8 +1767,8 @@
   <dimension ref="A1:AA990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2138,7 +2153,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="6"/>
@@ -3064,7 +3079,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>93</v>
       </c>
@@ -3105,7 +3120,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>99</v>
       </c>
@@ -3273,7 +3288,27 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -30906,7 +30941,7 @@
     <mergeCell ref="A1:H2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1048576 F4:F37 F39:F1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G1048576 F4:F1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
